--- a/summary_samples.xlsx
+++ b/summary_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://policlinicogemelli-my.sharepoint.com/personal/luciano_giaco_policlinicogemelli_it/Documents/gemelli/MTB/validazione/validazione-tso500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32455A0A-2960-254E-9035-042365627E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{32455A0A-2960-254E-9035-042365627E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD20B9D1-526C-AE4E-BADF-1E30927D04D4}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="760" windowWidth="30760" windowHeight="17820" xr2:uid="{4714ED3E-DEBA-8B4A-81CF-4E0AFE85FCBD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{4714ED3E-DEBA-8B4A-81CF-4E0AFE85FCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="430">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -1301,13 +1301,37 @@
   </si>
   <si>
     <t>mix</t>
+  </si>
+  <si>
+    <t>Expected mut</t>
+  </si>
+  <si>
+    <t>Quant</t>
+  </si>
+  <si>
+    <t>Qual</t>
+  </si>
+  <si>
+    <t>Library qual</t>
+  </si>
+  <si>
+    <t>Quant cutoff</t>
+  </si>
+  <si>
+    <t>Qual cutoff</t>
+  </si>
+  <si>
+    <t>Library cutoff</t>
+  </si>
+  <si>
+    <t>AF Expected mut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1318,6 +1342,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1343,9 +1375,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1660,62 +1693,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361E08A9-92C1-584D-A397-B1CD2CF2A5BA}">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46:L77"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1744,7 +1807,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1773,7 +1836,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +1865,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1831,7 +1894,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1860,7 +1923,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1889,7 +1952,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1918,7 +1981,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1947,7 +2010,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1976,7 +2039,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2005,7 +2068,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -2034,7 +2097,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2063,7 +2126,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2092,7 +2155,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2121,7 +2184,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
